--- a/MANUAL_INPUT - Template for Adding Companies Via Local Admin Mapping.xlsx
+++ b/MANUAL_INPUT - Template for Adding Companies Via Local Admin Mapping.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A63B6E-43CC-4D01-97D2-9F6C6D78A740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E17166-1B9A-477F-A361-66AB342DCCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{29B1540F-F0FC-4415-B2A2-7497AFB096B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="STG" sheetId="5" r:id="rId2"/>
-    <sheet name="SOFTWARE" sheetId="4" r:id="rId3"/>
-    <sheet name="Reference" sheetId="2" r:id="rId4"/>
+    <sheet name="Heavy Machinary" sheetId="6" r:id="rId3"/>
+    <sheet name="SOFTWARE" sheetId="4" r:id="rId4"/>
+    <sheet name="Reference" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SOFTWARE!$A$1:$G$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SOFTWARE!$A$1:$G$48</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="179">
   <si>
     <t>CIK</t>
   </si>
@@ -463,6 +464,111 @@
   </si>
   <si>
     <t>Elastic N.V</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Caterpillar Inc</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Deere &amp; Co</t>
+  </si>
+  <si>
+    <t>PCAR</t>
+  </si>
+  <si>
+    <t>Paccar Inc</t>
+  </si>
+  <si>
+    <t>AGCO</t>
+  </si>
+  <si>
+    <t>AGCO Corp</t>
+  </si>
+  <si>
+    <t>OSK</t>
+  </si>
+  <si>
+    <t>Oshkosh Corp</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>Terex Corp</t>
+  </si>
+  <si>
+    <t>ALG</t>
+  </si>
+  <si>
+    <t>Alamo Group Inc</t>
+  </si>
+  <si>
+    <t>REVG</t>
+  </si>
+  <si>
+    <t>REV Group Inc</t>
+  </si>
+  <si>
+    <t>LNN</t>
+  </si>
+  <si>
+    <t>Lindsay Corporation</t>
+  </si>
+  <si>
+    <t>BLBD</t>
+  </si>
+  <si>
+    <t>Blue Bird Corp</t>
+  </si>
+  <si>
+    <t>CMCO</t>
+  </si>
+  <si>
+    <t>Columbus Mckinnon Corp</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>Hyster Yale Inc</t>
+  </si>
+  <si>
+    <t>ASTE</t>
+  </si>
+  <si>
+    <t>Astec Industries Inc</t>
+  </si>
+  <si>
+    <t>WNC</t>
+  </si>
+  <si>
+    <t>Wabash National Corp</t>
+  </si>
+  <si>
+    <t>TWI</t>
+  </si>
+  <si>
+    <t>Titan International, Inc</t>
+  </si>
+  <si>
+    <t>SHYF</t>
+  </si>
+  <si>
+    <t>Shyft Group Inc</t>
+  </si>
+  <si>
+    <t>MTW</t>
+  </si>
+  <si>
+    <t>Manitowoc Co., Inc</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION MACHINERY &amp; EQUIP</t>
   </si>
 </sst>
 </file>
@@ -833,7 +939,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FC7F36-B586-4549-BEB6-6E2827A8FCF6}">
   <dimension ref="E4:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,12 +1857,459 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18BE0E2-5F0C-447D-90F8-6EA85578D1EE}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>18230</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>315189</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>75362</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>880266</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>775158</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>97216</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>897077</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1687221</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>836157</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>889469</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1005229</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1173514</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>792987</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>879526</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>899751</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>743238</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>61986</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7EA6DF7-ABDF-495C-803C-90026999E8C3}">
+          <x14:formula1>
+            <xm:f>Reference!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D431</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD26D9F-B02D-4B4F-86FD-F19B139534EB}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +3346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999F12F7-A73E-4785-B5DA-9FC0FAD1D19E}">
   <dimension ref="B1:C3"/>
   <sheetViews>
